--- a/public/public_data/v1.6/EpiGenes_histones_1_6.xlsx
+++ b/public/public_data/v1.6/EpiGenes_histones_1_6.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="518">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>HGNC_Symbol</t>
   </si>
@@ -1575,12 +1578,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1598,180 +1602,30 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4600A5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF9900"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF003366"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF003366"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF003366"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF003366"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
-        <bgColor rgb="FF9999FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1FB714"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0066CC"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF003366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD0806"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF339966"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1779,91 +1633,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF333399"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0066CC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF333333"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF333333"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF333333"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF333399"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF333399"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1887,153 +1658,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="5" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="6" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="20% - Accent1 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="20% - Accent2 2" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="20% - Accent3 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="20% - Accent4 2" xfId="23" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="40% - Accent1 2" xfId="24" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="40% - Accent3 2" xfId="25" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="40% - Accent4 2" xfId="26" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="40% - Accent6 2" xfId="27" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="60% - Accent1 2" xfId="28" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="60% - Accent3 2" xfId="29" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="60% - Accent4 2" xfId="30" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="60% - Accent6 2" xfId="31" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Accent1 2" xfId="32" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Accent2 2" xfId="33" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Accent3 2" xfId="34" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Accent4 2" xfId="35" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Bad 2" xfId="36" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Calculation 2" xfId="37" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Heading 1 2" xfId="38" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Heading 2 2" xfId="39" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Heading 3 2" xfId="40" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Heading 4 2" xfId="41" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Note 2" xfId="42" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Output 2" xfId="43" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Title 2" xfId="44" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Total 2" xfId="45" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFDD0806"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF1FB714"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF4600A5"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2042,30 +1693,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2123,25 +1774,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1851</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>1058</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>23</v>
@@ -2152,55 +1806,58 @@
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>88375</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>4714</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>3005</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
@@ -2211,11 +1868,11 @@
       <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>95893</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>35</v>
@@ -2227,39 +1884,42 @@
         <v>37</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>24893</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>341567</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>41</v>
@@ -2270,55 +1930,58 @@
       <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>1917319</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>18463</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>132243</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>49</v>
@@ -2329,55 +1992,58 @@
       <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>2176207</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>4722</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>8971</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>57</v>
@@ -2388,55 +2054,58 @@
       <c r="I6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="n">
         <v>2685307</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>22516</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>474382</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>63</v>
@@ -2447,173 +2116,182 @@
       <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="n">
         <v>3644875</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>18298</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>474381</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="n">
         <v>3644875</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>14455</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>83740</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2" t="n">
         <v>3644875</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>14456</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>55766</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>76</v>
@@ -2624,55 +2302,58 @@
       <c r="I10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <v>3606192</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>21</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>20664</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>94239</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>84</v>
@@ -2683,114 +2364,120 @@
       <c r="I11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="2" t="n">
         <v>1924855</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>4739</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>3014</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="2" t="n">
         <v>102688</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>21</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>4740</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>9555</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>100</v>
@@ -2801,173 +2488,182 @@
       <c r="I13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="2" t="n">
         <v>1349392</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>14453</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>55506</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="2" t="n">
         <v>3037658</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>111</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>4741</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>3015</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="2" t="n">
         <v>1888388</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>27867</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>286436</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>123</v>
@@ -2978,114 +2674,120 @@
       <c r="I16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="2" t="n">
         <v>1916639</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>4762</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>54145</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>4762</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>54145</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="S17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>27252</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>158983</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>135</v>
@@ -3094,57 +2796,60 @@
         <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>4764</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>3020</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>140</v>
@@ -3155,55 +2860,58 @@
       <c r="I19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="2" t="n">
         <v>1097686</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>4765</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>3021</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>140</v>
@@ -3212,57 +2920,60 @@
         <v>141</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="2" t="n">
         <v>1101768</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>144</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>33164</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>440093</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>152</v>
@@ -3271,57 +2982,60 @@
         <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>4715</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>3024</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>157</v>
@@ -3332,11 +3046,11 @@
       <c r="I22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="2" t="n">
         <v>1931523</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>161</v>
@@ -3348,39 +3062,42 @@
         <v>163</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>164</v>
+        <v>21</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>4719</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>3009</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>167</v>
@@ -3391,55 +3108,58 @@
       <c r="I23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="2" t="n">
         <v>1861461</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>171</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>4716</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>3006</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>176</v>
@@ -3450,55 +3170,58 @@
       <c r="I24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="2" t="n">
         <v>1931526</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>180</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>21</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>4717</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>3007</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>184</v>
@@ -3509,55 +3232,58 @@
       <c r="I25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="2" t="n">
         <v>107502</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>188</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>21</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>4718</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>3008</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>192</v>
@@ -3568,55 +3294,58 @@
       <c r="I26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="2" t="n">
         <v>1931527</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>4720</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>3010</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>200</v>
@@ -3627,763 +3356,802 @@
       <c r="I27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="2" t="n">
         <v>1888530</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>204</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>21</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>18729</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>221613</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="2" t="n">
         <v>2448285</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>4734</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>8335</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>213</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J29" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" s="2" t="n">
         <v>2448293</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>21</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>4733</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>8334</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="2" t="n">
         <v>2448302</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>222</v>
+        <v>21</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>4729</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>3013</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>225</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J31" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="2" t="n">
         <v>2448306</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>227</v>
+        <v>21</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>4724</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>3012</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>213</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="2" t="n">
         <v>2448457</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>230</v>
+        <v>21</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>4737</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="2" t="n">
         <v>8969</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>233</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="2" t="n">
         <v>2448300</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>235</v>
+        <v>21</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>13671</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>85235</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J34" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="2" t="n">
         <v>2448295</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>241</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>242</v>
+        <v>21</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>4725</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="2" t="n">
         <v>8329</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>233</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>244</v>
+        <v>21</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>4727</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="2" t="n">
         <v>8331</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>247</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J36" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="2" t="n">
         <v>2448309</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>250</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>251</v>
+        <v>21</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>4726</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>8330</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>233</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="J37" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="2" t="n">
         <v>2448287</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>254</v>
+        <v>21</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>4730</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="2" t="n">
         <v>8332</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>233</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J38" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="2" t="n">
         <v>2448290</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>257</v>
+        <v>21</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>4735</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>8336</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>233</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J39" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" s="2" t="n">
         <v>2448289</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>216</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>260</v>
+        <v>21</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>18730</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="2" t="n">
         <v>255626</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>263</v>
@@ -4394,1471 +4162,1546 @@
       <c r="I40" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" s="2" t="n">
         <v>2448375</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>267</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>268</v>
+        <v>21</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>4751</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>3018</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>271</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J41" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="2" t="n">
         <v>2448377</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>274</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>275</v>
+        <v>21</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>4757</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <v>8347</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J42" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" s="2" t="n">
         <v>2448386</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>281</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>21</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>4747</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="2" t="n">
         <v>3017</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>285</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J43" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K43" s="2" t="n">
         <v>2448375</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>267</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>286</v>
+        <v>21</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>4753</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>8344</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" s="2" t="n">
         <v>2448403</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>290</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>291</v>
+        <v>21</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>4752</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>8343</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J45" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K45" s="2" t="n">
         <v>2448380</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>281</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>294</v>
+        <v>21</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>4746</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <v>8339</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J46" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K46" s="2" t="n">
         <v>2448383</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>290</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>297</v>
+        <v>21</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2" t="n">
+        <v>298</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>4755</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <v>8345</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>300</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J47" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K47" s="2" t="n">
         <v>3710645</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>302</v>
+        <v>21</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2" t="n">
+        <v>303</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>4756</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>8346</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>278</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J48" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" s="2" t="n">
         <v>1915274</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>281</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>305</v>
+        <v>21</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>4761</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>8970</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>308</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="J49" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K49" s="2" t="n">
         <v>2448380</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>281</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>309</v>
+        <v>21</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="2" t="n">
+        <v>310</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>13954</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <v>85236</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>312</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J50" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="K50" s="2" t="n">
         <v>2448399</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>315</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>316</v>
+        <v>21</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>4748</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="2" t="n">
         <v>8340</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>319</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J51" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K51" s="2" t="n">
         <v>2448388</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>290</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>321</v>
+        <v>21</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="2" t="n">
+        <v>322</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>4750</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>8342</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>324</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="J52" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>2448407</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>290</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>326</v>
+        <v>21</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2" t="n">
+        <v>327</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>4749</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="2" t="n">
         <v>8341</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>329</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J53" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K53" s="2" t="n">
         <v>2448404</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>332</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>162</v>
+        <v>333</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>333</v>
+        <v>21</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="2" t="n">
+        <v>334</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2" t="n">
         <v>4758</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <v>8348</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>336</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J54" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" s="2" t="n">
         <v>2448409</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>339</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>340</v>
+        <v>21</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="n">
         <v>4766</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>8350</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J55" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" s="2" t="n">
         <v>2448322</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>347</v>
+        <v>21</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>4776</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" s="2" t="n">
         <v>8358</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J56" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K56" s="2" t="n">
         <v>2448319</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>350</v>
+        <v>21</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>4768</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F57" s="2" t="n">
         <v>8352</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="J57" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K57" s="2" t="n">
         <v>2448355</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>353</v>
+        <v>21</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="2" t="n">
+        <v>354</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="n">
         <v>4767</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F58" s="2" t="n">
         <v>8351</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="J58" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K58" s="2" t="n">
         <v>2668828</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>357</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>21</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2" t="n">
         <v>4769</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>8353</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J59" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K59" s="2" t="n">
         <v>2448349</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>357</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>21</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2" t="n">
         <v>4773</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F60" s="2" t="n">
         <v>8968</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J60" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K60" s="2" t="n">
         <v>2448350</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>357</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>364</v>
+        <v>21</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C61" s="2" t="n">
+        <v>365</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="n">
         <v>4772</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <v>8355</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J61" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K61" s="2" t="n">
         <v>2448357</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>367</v>
+        <v>21</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="n">
         <v>4775</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F62" s="2" t="n">
         <v>8357</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J62" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K62" s="2" t="n">
         <v>2448319</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>369</v>
+        <v>21</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>4771</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <v>8354</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J63" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" s="2" t="n">
         <v>2448326</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>372</v>
+        <v>21</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="n">
         <v>4774</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>8356</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J64" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K64" s="2" t="n">
         <v>2145541</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>357</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>375</v>
+        <v>21</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="n">
         <v>4781</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="2" t="n">
         <v>8359</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>378</v>
@@ -5869,55 +5712,58 @@
       <c r="I65" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="J65" s="2" t="n">
+      <c r="J65" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K65" s="2" t="n">
         <v>2448423</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>384</v>
+        <v>21</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="2" t="n">
         <v>4789</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F66" s="2" t="n">
         <v>8366</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>378</v>
@@ -5926,57 +5772,60 @@
         <v>379</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J66" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66" s="2" t="n">
         <v>2448443</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>387</v>
+        <v>21</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="n">
         <v>4787</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" s="2" t="n">
         <v>8364</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>378</v>
@@ -5985,57 +5834,60 @@
         <v>379</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="J67" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67" s="2" t="n">
         <v>2140113</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>390</v>
+        <v>21</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="2" t="n">
+        <v>391</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="2" t="n">
         <v>4782</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F68" s="2" t="n">
         <v>8360</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>378</v>
@@ -6044,57 +5896,60 @@
         <v>379</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="J68" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K68" s="2" t="n">
         <v>2448441</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>393</v>
+        <v>21</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="2" t="n">
         <v>4790</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F69" s="2" t="n">
         <v>8367</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>378</v>
@@ -6103,57 +5958,60 @@
         <v>379</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>395</v>
+        <v>21</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="2" t="n">
+        <v>396</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="n">
         <v>4783</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F70" s="2" t="n">
         <v>8361</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>378</v>
@@ -6162,57 +6020,60 @@
         <v>379</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J70" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K70" s="2" t="n">
         <v>2448421</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>398</v>
+        <v>21</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="2" t="n">
         <v>4788</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F71" s="2" t="n">
         <v>8365</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>378</v>
@@ -6221,57 +6082,60 @@
         <v>379</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J71" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K71" s="2" t="n">
         <v>2448439</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>401</v>
+        <v>21</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="2" t="n">
+        <v>402</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>4793</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F72" s="2" t="n">
         <v>8294</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>378</v>
@@ -6280,57 +6144,60 @@
         <v>379</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J72" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" s="2" t="n">
         <v>2448427</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>404</v>
+        <v>21</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="2" t="n">
         <v>4785</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F73" s="2" t="n">
         <v>8363</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>378</v>
@@ -6339,57 +6206,60 @@
         <v>379</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J73" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" s="2" t="n">
         <v>2448425</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>407</v>
+        <v>21</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="n">
         <v>4784</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F74" s="2" t="n">
         <v>8362</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>378</v>
@@ -6398,57 +6268,60 @@
         <v>379</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="J74" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K74" s="2" t="n">
         <v>2448436</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>410</v>
+        <v>21</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="2" t="n">
         <v>4791</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75" s="2" t="n">
         <v>8368</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>378</v>
@@ -6457,706 +6330,742 @@
         <v>379</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J75" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K75" s="2" t="n">
         <v>4843992</v>
       </c>
-      <c r="K75" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>413</v>
+        <v>21</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="2" t="n">
         <v>4736</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F76" s="2" t="n">
         <v>8337</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J76" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K76" s="2" t="n">
         <v>96097</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>419</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>420</v>
+        <v>21</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="2" t="n">
+        <v>421</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2" t="n">
         <v>29668</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F77" s="2" t="n">
         <v>723790</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>416</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J77" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K77" s="2" t="n">
         <v>96097</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>419</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>162</v>
+        <v>420</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>422</v>
+        <v>21</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="2" t="n">
+        <v>423</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="2" t="n">
         <v>20508</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F78" s="2" t="n">
         <v>317772</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>425</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J78" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K78" s="2" t="n">
         <v>2448314</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>428</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>162</v>
+        <v>429</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>429</v>
+        <v>21</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="2" t="n">
+        <v>430</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="2" t="n">
         <v>4738</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F79" s="2" t="n">
         <v>8338</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>432</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="K79" s="2" t="n">
         <v>2448316</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>435</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>162</v>
+        <v>436</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
-        <v>436</v>
+        <v>21</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="3" t="n">
+        <v>437</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="n">
         <v>20516</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F80" s="2" t="n">
         <v>337873</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>440</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>20</v>
+        <v>441</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>20517</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>337874</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="3" t="n">
-        <v>20517</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E81" s="3" t="n">
-        <v>337874</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="J81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>445</v>
+        <v>21</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="2" t="n">
+        <v>446</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="2" t="n">
         <v>4760</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F82" s="2" t="n">
         <v>8349</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>448</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>449</v>
+        <v>21</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2" t="n">
         <v>24700</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F83" s="2" t="n">
         <v>440689</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>452</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>131</v>
+        <v>453</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J83" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="K83" s="2" t="n">
         <v>2448413</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>455</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>456</v>
+        <v>21</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="2" t="n">
+        <v>457</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="2" t="n">
         <v>20505</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F84" s="2" t="n">
         <v>333932</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>459</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>141</v>
+        <v>460</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J84" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K84" s="2" t="n">
         <v>2448329</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>461</v>
+        <v>21</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="2" t="n">
+        <v>462</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="2" t="n">
         <v>20503</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F85" s="2" t="n">
         <v>126961</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>459</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>141</v>
+        <v>460</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>463</v>
+        <v>21</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="2" t="n">
+        <v>464</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="n">
         <v>25311</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F86" s="2" t="n">
         <v>653604</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>459</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>141</v>
+        <v>460</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J86" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K86" s="2" t="n">
         <v>2448320</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q86" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>466</v>
+        <v>21</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="2" t="n">
         <v>4794</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F87" s="2" t="n">
         <v>8370</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>378</v>
@@ -7165,57 +7074,60 @@
         <v>379</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J87" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K87" s="2" t="n">
         <v>2448420</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>346</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>469</v>
+        <v>21</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="2" t="n">
+        <v>470</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="2" t="n">
         <v>29607</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F88" s="2" t="n">
         <v>554313</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>378</v>
@@ -7224,234 +7136,246 @@
         <v>379</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J88" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K88" s="2" t="n">
         <v>2448419</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>357</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
-        <v>472</v>
+        <v>21</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="2" t="n">
+        <v>473</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="2" t="n">
         <v>20507</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F89" s="2" t="n">
         <v>92815</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>475</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J89" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K89" s="2" t="n">
         <v>2448458</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>478</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>162</v>
+        <v>479</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>479</v>
+        <v>21</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="2" t="n">
+        <v>480</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="2" t="n">
         <v>20514</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F90" s="2" t="n">
         <v>128312</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>482</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>131</v>
+        <v>483</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
-        <v>483</v>
+        <v>21</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="2" t="n">
+        <v>484</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="2" t="n">
         <v>4778</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F91" s="2" t="n">
         <v>8290</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>486</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>487</v>
+        <v>21</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="2" t="n">
+        <v>488</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="2" t="n">
         <v>20510</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F92" s="2" t="n">
         <v>121504</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>378</v>
@@ -7460,273 +7384,288 @@
         <v>379</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="J92" s="2" t="n">
+        <v>380</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K92" s="2" t="n">
         <v>2448443</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>382</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>162</v>
+        <v>383</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>163</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>383</v>
+        <v>21</v>
       </c>
       <c r="R92" s="2" t="s">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>489</v>
+        <v>21</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="3" t="n">
+        <v>490</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="2" t="n">
         <v>9447</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F93" s="2" t="n">
         <v>5619</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="J93" s="3" t="n">
+      <c r="J93" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K93" s="2" t="n">
         <v>97765</v>
       </c>
-      <c r="K93" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>497</v>
+        <v>21</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="3" t="n">
+        <v>498</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="2" t="n">
         <v>9448</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F94" s="2" t="n">
         <v>5620</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="J94" s="3" t="n">
+      <c r="J94" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K94" s="2" t="n">
         <v>97766</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="2" t="s">
         <v>504</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>20</v>
+        <v>505</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
-        <v>505</v>
+        <v>21</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="3" t="n">
+        <v>506</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2" t="n">
         <v>13732</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F95" s="2" t="n">
         <v>58531</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="2" t="s">
         <v>508</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="J95" s="3" t="n">
+      <c r="I95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K95" s="2" t="n">
         <v>106601</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="2" t="s">
         <v>511</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>20</v>
+        <v>512</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D96" s="2" t="n">
         <v>4792</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F96" s="2" t="n">
         <v>8369</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>516</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>379</v>
+        <v>517</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="O96" s="2" t="s">
-        <v>20</v>
+      <c r="O96" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
